--- a/data/georgia_census/imereti/xaragauli/average_wages.xlsx
+++ b/data/georgia_census/imereti/xaragauli/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15545C76-2959-44A9-B1B6-2967A0A7CBE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A430E665-A6E1-45C5-A3C0-F0BACE353FF7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FB5E9E-BB4A-48BE-A695-D58AAE700733}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67698331-EEB3-4997-A940-A475CC4E9FBC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD55FDC6-31D2-4EFA-812B-6F86D259330B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF5AA710-1248-41B3-B3D3-07613BBEFD50}"/>
 </file>